--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_aid_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0469610137848194</v>
+        <v>-0.0359802796359599</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0761841554094277</v>
+        <v>-0.0566583497522772</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.017737872160211</v>
+        <v>-0.0153022095196427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0508203341185618</v>
+        <v>-0.0464175388452988</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0899477492879463</v>
+        <v>-0.0742121605265226</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0116929189491772</v>
+        <v>-0.018622917164075</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0364539701119243</v>
+        <v>0.0153185378491868</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0621399286263642</v>
+        <v>-0.053732438640918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.135047868850213</v>
+        <v>0.0843695143392915</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0896127383847394</v>
+        <v>-0.0694482909577571</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1718506539513</v>
+        <v>-0.127593399095205</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00737482281817878</v>
+        <v>-0.0113031828203091</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.190068106719343</v>
+        <v>-0.126411963213932</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.28680302975504</v>
+        <v>-0.197866304239028</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0933331836836468</v>
+        <v>-0.0549576221888362</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0758686150701005</v>
+        <v>-0.0542406068491518</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.188148933887069</v>
+        <v>-0.13574855367973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0364117037468681</v>
+        <v>0.0272673399814261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0487046382129879</v>
+        <v>-0.10179630030163</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.156729295114354</v>
+        <v>-0.17705687228679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0593200186883782</v>
+        <v>-0.0265357283164696</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0170317357054675</v>
+        <v>0.0108339402477596</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0771670309403243</v>
+        <v>-0.0556931917155847</v>
       </c>
       <c r="D9" t="n">
-        <v>0.111230502351259</v>
+        <v>0.0773610722111039</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.077318341501115</v>
+        <v>0.0837839851033947</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0688971648679781</v>
+        <v>-0.0216366707883592</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223533847870208</v>
+        <v>0.189204640995149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0184264255454356</v>
+        <v>-0.0148317041662747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0677962933855345</v>
+        <v>-0.0493904940584233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0309434422946632</v>
+        <v>0.0197270857258738</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0848847832563872</v>
+        <v>-0.0384451845061834</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.170299927328357</v>
+        <v>-0.0987851727871903</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000530360815582581</v>
+        <v>0.0218948037748236</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0359802796359599</v>
+        <v>-0.03598027963596</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0566583497522772</v>
+        <v>-0.0566583497522774</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0153022095196427</v>
+        <v>-0.0153022095196425</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0464175388452988</v>
+        <v>-0.0464175388452985</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0742121605265226</v>
+        <v>-0.0742121605265222</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.018622917164075</v>
+        <v>-0.0186229171640748</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0153185378491868</v>
+        <v>0.0153185378491866</v>
       </c>
       <c r="C4" t="n">
         <v>-0.053732438640918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0843695143392915</v>
+        <v>0.0843695143392912</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0694482909577571</v>
+        <v>-0.0694482909577569</v>
       </c>
       <c r="C5" t="n">
         <v>-0.127593399095205</v>
@@ -490,7 +490,7 @@
         <v>-0.197866304239028</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0549576221888362</v>
+        <v>-0.0549576221888361</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0542406068491518</v>
+        <v>-0.0542406068491516</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.13574855367973</v>
+        <v>-0.135748553679729</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0272673399814261</v>
+        <v>0.0272673399814263</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,10 +521,10 @@
         <v>-0.10179630030163</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.17705687228679</v>
+        <v>-0.177056872286789</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0265357283164696</v>
+        <v>-0.0265357283164695</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -538,10 +538,10 @@
         <v>0.0108339402477596</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0556931917155847</v>
+        <v>-0.0556931917155845</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0773610722111039</v>
+        <v>0.0773610722111037</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,13 +552,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0837839851033947</v>
+        <v>0.0837839851033946</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0216366707883592</v>
+        <v>-0.0216366707883593</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189204640995149</v>
+        <v>0.189204640995148</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -572,10 +572,10 @@
         <v>-0.0148317041662747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0493904940584233</v>
+        <v>-0.0493904940584227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197270857258738</v>
+        <v>0.0197270857258734</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0384451845061834</v>
+        <v>-0.038445184506183</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0987851727871903</v>
+        <v>-0.09878517278719</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0218948037748236</v>
+        <v>0.0218948037748239</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_consistent.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.03598027963596</v>
+        <v>-0.0359802796359603</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0566583497522774</v>
+        <v>-0.0566583497522779</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0153022095196425</v>
+        <v>-0.0153022095196428</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0464175388452985</v>
+        <v>-0.0464175388452984</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0742121605265222</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0186229171640748</v>
+        <v>-0.0186229171640746</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,13 +450,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0153185378491866</v>
+        <v>0.0153185378491867</v>
       </c>
       <c r="C4" t="n">
         <v>-0.053732438640918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0843695143392912</v>
+        <v>0.0843695143392913</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -484,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.126411963213932</v>
+        <v>-0.126411963213931</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.197866304239028</v>
+        <v>-0.197866304239027</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0549576221888361</v>
+        <v>-0.0549576221888355</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0542406068491516</v>
+        <v>-0.0542406068491515</v>
       </c>
       <c r="C7" t="n">
         <v>-0.135748553679729</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0272673399814263</v>
+        <v>0.0272673399814264</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -521,10 +521,10 @@
         <v>-0.10179630030163</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.177056872286789</v>
+        <v>-0.17705687228679</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0265357283164695</v>
+        <v>-0.0265357283164697</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -569,13 +569,13 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0148317041662747</v>
+        <v>-0.0148317041662748</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0493904940584227</v>
+        <v>-0.0493904940584233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197270857258734</v>
+        <v>0.0197270857258737</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,13 +586,13 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.038445184506183</v>
+        <v>-0.0384451845061828</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.09878517278719</v>
+        <v>-0.0987851727871897</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0218948037748239</v>
+        <v>0.021894803774824</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
